--- a/static/files/exam.xlsx
+++ b/static/files/exam.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>題目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,10 @@
   </si>
   <si>
     <t>答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -388,7 +392,7 @@
     <col min="1" max="1" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,6 +410,9 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
